--- a/ValueSet-mp-kbv-s-bmp-zwischenueberschrift-vs.xlsx
+++ b/ValueSet-mp-kbv-s-bmp-zwischenueberschrift-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: 1.2.276.0.76.3.1.1.5.2.42</t>
+    <t>id: 1.2.276.0.76.3.1.1.5.2.42</t>
   </si>
   <si>
     <t>Version</t>
